--- a/input_files/constructors/demo1/constructor_rep_amt.xlsx
+++ b/input_files/constructors/demo1/constructor_rep_amt.xlsx
@@ -1,41 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bitoche\REPOS\USER\dissertation_project\input_files\constructors\demo1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4B4EE5-FDD5-412B-BC0F-60A906FB7D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="constructor" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+  <si>
+    <t>Аналитический разрез</t>
+  </si>
+  <si>
+    <t>Наименование показателя</t>
+  </si>
+  <si>
+    <t>Формула для подсчета</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>metric_name</t>
+  </si>
+  <si>
+    <t>calc_formula</t>
+  </si>
+  <si>
+    <t>filter_formula</t>
+  </si>
+  <si>
+    <t>рисковая поправка на нефинансовый риск</t>
+  </si>
+  <si>
+    <t>RES_RA_AMT_METRICS</t>
+  </si>
+  <si>
+    <t>RES_RA_AMT</t>
+  </si>
+  <si>
+    <t>1 == 1</t>
+  </si>
+  <si>
+    <t>оценка приведенной стоимости будущих денежных потоков</t>
+  </si>
+  <si>
+    <t>PV_TOTAL_METRICS</t>
+  </si>
+  <si>
+    <t>PV_LRC_TOTAL</t>
+  </si>
+  <si>
+    <t>обязательства, оцененные с использованием подхода на основе распределения премии</t>
+  </si>
+  <si>
+    <t>obligations_lrc_METRICS</t>
+  </si>
+  <si>
+    <t>OBLIGAT_LRC</t>
+  </si>
+  <si>
+    <t>Компонент убытка</t>
+  </si>
+  <si>
+    <t>RES_LS_METRICS</t>
+  </si>
+  <si>
+    <t>RES_LC</t>
+  </si>
+  <si>
+    <t>маржа за предусмотренные договором услуги</t>
+  </si>
+  <si>
+    <t>RES_CSM_METRICS</t>
+  </si>
+  <si>
+    <t>RES_CSM</t>
+  </si>
+  <si>
+    <t>Рисковая поправка LIC</t>
+  </si>
+  <si>
+    <t>RES_RA_L_AMT_METRICS</t>
+  </si>
+  <si>
+    <t>RES_RA_LIC_AMT</t>
+  </si>
+  <si>
+    <t>Потоки LIC</t>
+  </si>
+  <si>
+    <t>PV_L_TOTAL_METRICS</t>
+  </si>
+  <si>
+    <t>PV_LIC_TOTAL</t>
+  </si>
+  <si>
+    <t>Обязательства по оставшейся части покрытия, кроме компонента убытка, в том числе:</t>
+  </si>
+  <si>
+    <t>OBLIG_OOCHP_METRICS</t>
+  </si>
+  <si>
+    <t>RES_CSM, PV_LRC_TOTAL, RES_RA_AMT, OBLIGAT_LRC</t>
+  </si>
+  <si>
+    <t>Обязательства по возникшим требованиям</t>
+  </si>
+  <si>
+    <t>OBLIG_OVT_METRICS</t>
+  </si>
+  <si>
+    <t>RES_RA_LIC_AMT, PV_LIC_TOTAL</t>
+  </si>
+  <si>
+    <t>Активы, признанные в отношении аквизиционных денежных потоков</t>
+  </si>
+  <si>
+    <t>ACTIVE_AQUIS_METRICS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>ANOTHER_METRICS</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>SUMM_METRICS</t>
+  </si>
+  <si>
+    <t>OBLIG_OOCHP_METRICS, OBLIG_OVT_METRICS, METRICS,RES_LS_METRICS, ACTIVE_AQUIS_METRICS, ANOTHER_METRICS</t>
+  </si>
+  <si>
+    <t>Формула, которая определяет, будет ли считаться данный показатель.
+Заполняется в виде, указанном в README директории конструкторов.</t>
+  </si>
+  <si>
+    <t>Формула для фильтрации</t>
+  </si>
+  <si>
+    <t>Описание аналитического разреза.
+Не применяется в расчете, можно заполнять свободно, по смыслу</t>
+  </si>
+  <si>
+    <t>Физическое наименование расчетного показателя.
+Соответствует названию amount_type_cd в выходной витрине. 
+По нему заполняется report_item_desc</t>
+  </si>
+  <si>
+    <t>Формула, по которой будет считаться показатель. 
+Является агрегацией с суммированием. 
+Заполняется как перечисление расчетных показателей из источника результатов по группам</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,14 +205,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,230 +548,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Аналитический разрез</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Наименование показателя</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Формула для подсчета</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Формула для фильтрации (скрипт)</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Описание аналитического разреза._x000d_
-Не применяется в расчете, можно заполнять свободно, по смыслу</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Физическое наименование расчетного показателя._x000d_
-Соответствует названию amount_type_cd в выходной витрине. _x000d_
-По нему заполняется report_item_desc</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Формула, по которой будет считаться показатель. _x000d_
-Является агрегацией с суммированием. Заполняется как перечисление расчетных показателей из источника результатов по группам</v>
-      </c>
-      <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Формула, через которую пройдет итоговое значение._x000d_
-Заполняется в виде sql-скрипта для отбора конкретных записей, удовлетворяющих УСЛОВИЮ</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>slice</v>
-      </c>
-      <c r="B3" t="str">
-        <v>metric_name</v>
-      </c>
-      <c r="C3" t="str">
-        <v>calc_formula</v>
-      </c>
-      <c r="D3" t="str">
-        <v>filter_formula</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>рисковая поправка на нефинансовый риск</v>
-      </c>
-      <c r="B4" t="str">
-        <v>RES_RA_AMT_METRICS</v>
-      </c>
-      <c r="C4" t="str">
-        <v>RES_RA_AMT</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>оценка приведенной стоимости будущих денежных потоков</v>
-      </c>
-      <c r="B5" t="str">
-        <v>PV_TOTAL_METRICS</v>
-      </c>
-      <c r="C5" t="str">
-        <v>PV_LRC_TOTAL</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>обязательства, оцененные с использованием подхода на основе распределения премии</v>
-      </c>
-      <c r="B6" t="str">
-        <v>obligations_lrc_METRICS</v>
-      </c>
-      <c r="C6" t="str">
-        <v>OBLIGAT_LRC</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Компонент убытка</v>
-      </c>
-      <c r="B7" t="str">
-        <v>RES_LS_METRICS</v>
-      </c>
-      <c r="C7" t="str">
-        <v>RES_LC</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>маржа за предусмотренные договором услуги</v>
-      </c>
-      <c r="B8" t="str">
-        <v>RES_CSM_METRICS</v>
-      </c>
-      <c r="C8" t="str">
-        <v>RES_CSM</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Рисковая поправка LIC</v>
-      </c>
-      <c r="B9" t="str">
-        <v>RES_RA_L_AMT_METRICS</v>
-      </c>
-      <c r="C9" t="str">
-        <v>RES_RA_LIC_AMT</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Потоки LIC</v>
-      </c>
-      <c r="B10" t="str">
-        <v>PV_L_TOTAL_METRICS</v>
-      </c>
-      <c r="C10" t="str">
-        <v>PV_LIC_TOTAL</v>
-      </c>
-      <c r="D10" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Обязательства по оставшейся части покрытия, кроме компонента убытка, в том числе:</v>
-      </c>
-      <c r="B11" t="str">
-        <v>OBLIG_OOCHP_METRICS</v>
-      </c>
-      <c r="C11" t="str">
-        <v>RES_CSM, PV_LRC_TOTAL, RES_RA_AMT, OBLIGAT_LRC</v>
-      </c>
-      <c r="D11" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Обязательства по возникшим требованиям</v>
-      </c>
-      <c r="B12" t="str">
-        <v>OBLIG_OVT_METRICS</v>
-      </c>
-      <c r="C12" t="str">
-        <v>RES_RA_LIC_AMT, PV_LIC_TOTAL</v>
-      </c>
-      <c r="D12" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Активы, признанные в отношении аквизиционных денежных потоков</v>
-      </c>
-      <c r="B13" t="str">
-        <v>ACTIVE_AQUIS_METRICS</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Прочее</v>
-      </c>
-      <c r="B14" t="str">
-        <v>ANOTHER_METRICS</v>
-      </c>
-      <c r="C14" t="str">
-        <v>0</v>
-      </c>
-      <c r="D14" t="str">
-        <v>1 == 1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Итого</v>
-      </c>
-      <c r="B15" t="str">
-        <v>SUMM_METRICS</v>
-      </c>
-      <c r="C15" t="str">
-        <v>OBLIG_OOCHP_METRICS, OBLIG_OVT_METRICS, METRICS,RES_LS_METRICS, ACTIVE_AQUIS_METRICS, ANOTHER_METRICS</v>
-      </c>
-      <c r="D15" t="str">
-        <v>1 == 1</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
+    <ignoredError sqref="A1:C1 A3:D15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>